--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang09/NKBH_NgocHoan_210924.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang09/NKBH_NgocHoan_210924.xlsx
@@ -377,24 +377,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,6 +403,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -462,7 +462,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,7 +514,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,54 +863,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="30" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="30"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -960,28 +960,28 @@
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="12" t="s">
         <v>2</v>
       </c>
@@ -990,24 +990,24 @@
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15">
         <v>6</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="18" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,48 +1025,48 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -1125,26 +1125,26 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1157,15 +1157,6 @@
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D1:J3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E17:F17"/>
@@ -1182,6 +1173,15 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D1:J3"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
